--- a/raw_data/spain/2007.xlsx
+++ b/raw_data/spain/2007.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DMNP\DMNP1\MARIA JESUS\PETICIONES\2020\INTERIORES\5. Nombres nacidos 1996 a 2018 Vinuesa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosinascampino/Desktop/names_project/raw_data/spain/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E403EB-CA21-5D41-B1E9-41D8495EF890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10380" windowHeight="4548"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35660" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2007" sheetId="25" r:id="rId1"/>
+    <sheet name="Año 2007" sheetId="25" r:id="rId1"/>
     <sheet name="Total" sheetId="1" r:id="rId2"/>
     <sheet name="ANDALUCÍA" sheetId="4" r:id="rId3"/>
     <sheet name="ARAGÓN" sheetId="5" r:id="rId4"/>
@@ -869,7 +870,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -897,6 +898,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -914,6 +916,7 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1009,7 +1012,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1017,48 +1020,8 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1072,7 +1035,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -1082,18 +1045,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal_Lista Tablas_1" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Lista Tablas_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1370,277 +1330,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="52"/>
+    <col min="1" max="16384" width="11.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="2:5" ht="23" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-    </row>
-    <row r="2" spans="2:5" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="2:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="B4" s="55"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-    </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="58" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="15"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="15"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="57"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="58" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="57"/>
-    </row>
-    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="58" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="57"/>
-    </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="60" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="57"/>
-    </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="58" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="57"/>
-    </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="58" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="57"/>
-    </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="58" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="57"/>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="58" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="57"/>
-    </row>
-    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="58" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="57"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="58" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="57"/>
-    </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="58" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="57"/>
-    </row>
-    <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="58" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="58" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="57"/>
-    </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="58" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="57"/>
-    </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="58" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="57"/>
-    </row>
-    <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="58" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="57"/>
-    </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="58" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="57"/>
-    </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="58" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="57"/>
-    </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="58" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="57"/>
-    </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="58" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="57"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="57" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" location="TOTAL!A1" display="Nacional"/>
-    <hyperlink ref="B11" location="asturias!A1" display="asturias!A1"/>
-    <hyperlink ref="B12" location="baleares!A1" display="baleares!A1"/>
-    <hyperlink ref="B10" location="ARAGÓN!A1" display="Aragón"/>
-    <hyperlink ref="B9" location="ANDALUCÍA!A1" display="Andalucía "/>
-    <hyperlink ref="B13" location="CANARIAS!A1" display="Canarias"/>
-    <hyperlink ref="B14" location="cantabria!A1" display="cantabria!A1"/>
-    <hyperlink ref="B19" location="extremadura!A1" display="extremadura!A1"/>
-    <hyperlink ref="B24" location="'PAÍS VASCO'!A1" display="País Vasco"/>
-    <hyperlink ref="B15" location="'CASTILLA Y LEÓN'!A1" display="Castilla y León"/>
-    <hyperlink ref="B16" location="'CASTILLA-LA MANCHA'!A1" display="Castilla-La Mancha"/>
-    <hyperlink ref="B17" location="CATALUÑA!A1" display="Cataluña"/>
-    <hyperlink ref="B18" location="'COMUNIDAD VALENCIANA'!A1" display="Comunidad Valenciana"/>
-    <hyperlink ref="B20" location="galicia!A1" display="galicia!A1"/>
-    <hyperlink ref="B21" location="madrid!A1" display="madrid!A1"/>
-    <hyperlink ref="B22" location="murcia!A1" display="murcia!A1"/>
-    <hyperlink ref="B23" location="navarra!A1" display="navarra!A1"/>
-    <hyperlink ref="B25" location="'LA RIOJA'!A1" display="Rioja (La)"/>
-    <hyperlink ref="B26" location="ceuta!A1" display="ceuta!A1"/>
-    <hyperlink ref="B27" location="melilla!A1" display="melilla!A1"/>
+    <hyperlink ref="B8" location="TOTAL!A1" display="Nacional" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B11" location="asturias!A1" display="asturias!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B12" location="baleares!A1" display="baleares!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B10" location="ARAGÓN!A1" display="Aragón" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" location="ANDALUCÍA!A1" display="Andalucía " xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B13" location="CANARIAS!A1" display="Canarias" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B14" location="cantabria!A1" display="cantabria!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B19" location="extremadura!A1" display="extremadura!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B24" location="'PAÍS VASCO'!A1" display="País Vasco" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B15" location="'CASTILLA Y LEÓN'!A1" display="Castilla y León" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B16" location="'CASTILLA-LA MANCHA'!A1" display="Castilla-La Mancha" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B17" location="CATALUÑA!A1" display="Cataluña" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B18" location="'COMUNIDAD VALENCIANA'!A1" display="Comunidad Valenciana" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B20" location="galicia!A1" display="galicia!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B21" location="madrid!A1" display="madrid!A1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B22" location="murcia!A1" display="murcia!A1" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B23" location="navarra!A1" display="navarra!A1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B25" location="'LA RIOJA'!A1" display="Rioja (La)" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B26" location="ceuta!A1" display="ceuta!A1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B27" location="melilla!A1" display="melilla!A1" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1651,14 +1611,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>10684</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1666,153 +1626,153 @@
         <v>10191</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="9">
         <v>344</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="9">
         <v>340</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="9">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="9">
         <v>340</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="9">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="9">
         <v>282</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="9">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="9">
         <v>269</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="9">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="9">
         <v>266</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="9">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="9">
         <v>258</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="9">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="9">
         <v>237</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="9">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="9">
         <v>230</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="9">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="9">
         <v>215</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="9">
         <v>179</v>
       </c>
     </row>
@@ -1822,21 +1782,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1847,14 +1807,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>43292</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1862,157 +1822,157 @@
         <v>40745</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="9">
         <v>1392</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="9">
         <v>980</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="9">
         <v>1004</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="9">
         <v>980</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="9">
         <v>923</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="9">
         <v>958</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="9">
         <v>911</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="9">
         <v>936</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="9">
         <v>806</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="9">
         <v>934</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="9">
         <v>794</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="9">
         <v>888</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="9">
         <v>781</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="9">
         <v>769</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="9">
         <v>702</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="9">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="9">
         <v>624</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="9">
         <v>676</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="9">
         <v>586</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="9">
         <v>648</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="E15" s="6"/>
     </row>
@@ -2022,21 +1982,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2047,14 +2007,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>28120</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2062,153 +2022,153 @@
         <v>26358</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="9">
         <v>737</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="9">
         <v>856</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="9">
         <v>676</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="9">
         <v>792</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="9">
         <v>642</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="9">
         <v>721</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="9">
         <v>641</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="9">
         <v>558</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="9">
         <v>592</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="9">
         <v>493</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="9">
         <v>497</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="9">
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="9">
         <v>495</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="9">
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="9">
         <v>494</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="9">
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="9">
         <v>463</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="9">
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="9">
         <v>427</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="9">
         <v>448</v>
       </c>
     </row>
@@ -2218,21 +2178,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2243,14 +2203,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>5189</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2258,153 +2218,153 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="9">
         <v>194</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="9">
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="9">
         <v>185</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="9">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="9">
         <v>157</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="9">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="9">
         <v>142</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="9">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="9">
         <v>140</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="9">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="9">
         <v>139</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="9">
         <v>136</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="9">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="9">
         <v>133</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="9">
         <v>129</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="9">
         <v>123</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="9">
         <v>97</v>
       </c>
     </row>
@@ -2414,21 +2374,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2439,14 +2399,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>11216</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2454,153 +2414,153 @@
         <v>10536</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="9">
         <v>406</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="9">
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="9">
         <v>366</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="9">
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="9">
         <v>322</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="9">
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="9">
         <v>303</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="9">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="9">
         <v>285</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="9">
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="9">
         <v>272</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="9">
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="9">
         <v>250</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="9">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="9">
         <v>224</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="9">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="9">
         <v>215</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="9">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="9">
         <v>215</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="9">
         <v>195</v>
       </c>
     </row>
@@ -2610,21 +2570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2635,14 +2595,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>38489</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2650,153 +2610,153 @@
         <v>36348</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="9">
         <v>1380</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="9">
         <v>1333</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="9">
         <v>1226</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="9">
         <v>1018</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="9">
         <v>1116</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="9">
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="9">
         <v>1013</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="9">
         <v>862</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="9">
         <v>939</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="9">
         <v>803</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="9">
         <v>924</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="9">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="9">
         <v>891</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="9">
         <v>670</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="9">
         <v>879</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="9">
         <v>632</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="9">
         <v>788</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="9">
         <v>759</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="9">
         <v>581</v>
       </c>
     </row>
@@ -2806,21 +2766,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2831,14 +2791,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>9582</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2846,157 +2806,157 @@
         <v>90202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="9">
         <v>353</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="9">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="9">
         <v>268</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="9">
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="9">
         <v>256</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="9">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="9">
         <v>225</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="9">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="9">
         <v>223</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="9">
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="9">
         <v>208</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="9">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="9">
         <v>207</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="9">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="9">
         <v>173</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="9">
         <v>151</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="9">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="9">
         <v>147</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="9">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
@@ -3006,21 +2966,21 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -3031,14 +2991,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>3420</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3046,151 +3006,151 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="9">
         <v>96</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="9">
         <v>84</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="9">
         <v>81</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="9">
         <v>80</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="9">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="9">
         <v>73</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="9">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="9">
         <v>66</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="9">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="9">
         <v>65</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="9">
         <v>63</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="9">
         <v>61</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="9">
         <v>61</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
@@ -3203,21 +3163,21 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -3228,14 +3188,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>10625</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3243,147 +3203,147 @@
         <v>9969</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="9">
         <v>373</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="9">
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="9">
         <v>307</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="9">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="9">
         <v>307</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="9">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="9">
         <v>291</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="9">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="9">
         <v>277</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="9">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="9">
         <v>275</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="9">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="9">
         <v>271</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="9">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="9">
         <v>248</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="9">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="9">
         <v>223</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="9">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="9">
         <v>223</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="9">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
@@ -3393,21 +3353,21 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -3418,14 +3378,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>1696</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3433,157 +3393,157 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="9">
         <v>47</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="9">
         <v>45</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="9">
         <v>43</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="9">
         <v>40</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="9">
         <v>39</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="9">
         <v>39</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="9">
         <v>36</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="9">
         <v>36</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="9">
         <v>32</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="9">
         <v>31</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
     </row>
@@ -3593,1545 +3553,1545 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>253895</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>238632</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>6782</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>8229</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>6760</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>6957</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>5638</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>6447</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>5526</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>4617</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>5075</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>4352</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>4931</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>4149</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>4353</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>3968</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>4162</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>3924</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>3562</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>3909</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>3547</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>3652</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>3131</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>2887</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>2957</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>2646</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>2910</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>2621</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>2856</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>2589</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>2788</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>2576</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>2746</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>2528</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>2580</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <v>2427</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>2528</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <v>2399</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>2334</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <v>2294</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>2297</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <v>1879</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>2250</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>1850</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>2056</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>1804</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>2027</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="9">
         <v>1779</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>1975</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="9">
         <v>1754</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>1957</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="9">
         <v>1738</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>1874</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="9">
         <v>1693</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>1853</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="9">
         <v>1640</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>1852</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="9">
         <v>1622</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>1811</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="9">
         <v>1556</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>1696</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="9">
         <v>1544</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>1634</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="9">
         <v>1415</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>1633</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="9">
         <v>1320</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>1580</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="9">
         <v>1258</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>1535</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="9">
         <v>1206</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>1513</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="9">
         <v>1192</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>1484</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="9">
         <v>1165</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>1468</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="9">
         <v>1161</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>1449</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="9">
         <v>1144</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>1425</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="9">
         <v>1143</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>1418</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="9">
         <v>1137</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>1344</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="9">
         <v>1093</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>1341</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <v>1039</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>1331</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="9">
         <v>1025</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>1326</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="9">
         <v>1020</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>1234</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="9">
         <v>968</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>1215</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="9">
         <v>965</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>1193</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="9">
         <v>960</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>1092</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="9">
         <v>937</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>1091</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="9">
         <v>934</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>1088</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="9">
         <v>934</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>1067</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="9">
         <v>924</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <v>1066</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="9">
         <v>909</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>1032</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="9">
         <v>906</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <v>978</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="9">
         <v>902</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>966</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="9">
         <v>881</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <v>955</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="9">
         <v>880</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <v>945</v>
       </c>
       <c r="C61" s="6"/>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="9">
         <v>857</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <v>942</v>
       </c>
       <c r="C62" s="6"/>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="9">
         <v>771</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>917</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="9">
         <v>758</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>916</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="9">
         <v>685</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <v>906</v>
       </c>
       <c r="C65" s="6"/>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="9">
         <v>669</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="9">
         <v>891</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="9">
         <v>666</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <v>887</v>
       </c>
       <c r="C67" s="6"/>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="9">
         <v>664</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="9">
         <v>870</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="9">
         <v>660</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="9">
         <v>853</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="9">
         <v>653</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <v>842</v>
       </c>
       <c r="C70" s="6"/>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="9">
         <v>648</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <v>818</v>
       </c>
       <c r="C71" s="6"/>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="9">
         <v>647</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <v>817</v>
       </c>
       <c r="C72" s="6"/>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="9">
         <v>645</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="9">
         <v>809</v>
       </c>
       <c r="C73" s="6"/>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="9">
         <v>631</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="9">
         <v>804</v>
       </c>
       <c r="C74" s="6"/>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="9">
         <v>615</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <v>731</v>
       </c>
       <c r="C75" s="6"/>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="9">
         <v>613</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <v>725</v>
       </c>
       <c r="C76" s="6"/>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="9">
         <v>613</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>715</v>
       </c>
       <c r="C77" s="6"/>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="9">
         <v>613</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="9">
         <v>642</v>
       </c>
       <c r="C78" s="6"/>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="9">
         <v>594</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="9">
         <v>641</v>
       </c>
       <c r="C79" s="6"/>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="9">
         <v>591</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="9">
         <v>629</v>
       </c>
       <c r="C80" s="6"/>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="9">
         <v>569</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <v>594</v>
       </c>
       <c r="C81" s="6"/>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="9">
         <v>568</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="9">
         <v>593</v>
       </c>
       <c r="C82" s="6"/>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="9">
         <v>565</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <v>591</v>
       </c>
       <c r="C83" s="6"/>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="9">
         <v>558</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="9">
         <v>581</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="9">
         <v>550</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <v>576</v>
       </c>
       <c r="C85" s="6"/>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="9">
         <v>544</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>550</v>
       </c>
       <c r="C86" s="6"/>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="9">
         <v>526</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <v>538</v>
       </c>
       <c r="C87" s="6"/>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E87" s="9">
         <v>525</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <v>537</v>
       </c>
       <c r="C88" s="6"/>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E88" s="9">
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <v>529</v>
       </c>
       <c r="C89" s="6"/>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E89" s="9">
         <v>519</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="10" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <v>511</v>
       </c>
       <c r="C90" s="6"/>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="9">
         <v>516</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="9">
         <v>508</v>
       </c>
       <c r="C91" s="6"/>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="9">
         <v>515</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <v>504</v>
       </c>
       <c r="C92" s="6"/>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="9">
         <v>493</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="9">
         <v>496</v>
       </c>
       <c r="C93" s="6"/>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E93" s="9">
         <v>465</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <v>496</v>
       </c>
       <c r="C94" s="6"/>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="9">
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="9">
         <v>488</v>
       </c>
       <c r="C95" s="6"/>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="9">
         <v>451</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="9">
         <v>488</v>
       </c>
       <c r="C96" s="6"/>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="9">
         <v>449</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="9">
         <v>475</v>
       </c>
       <c r="C97" s="6"/>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="9">
         <v>442</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="9">
         <v>472</v>
       </c>
       <c r="C98" s="6"/>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="9">
         <v>430</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="9">
         <v>471</v>
       </c>
       <c r="C99" s="6"/>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="9">
         <v>418</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="9">
         <v>467</v>
       </c>
       <c r="C100" s="6"/>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="9">
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="9">
         <v>460</v>
       </c>
       <c r="C101" s="6"/>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="9">
         <v>397</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="9">
         <v>455</v>
       </c>
       <c r="C102" s="6"/>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="9">
         <v>389</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="9">
         <v>445</v>
       </c>
       <c r="C103" s="6"/>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="9">
         <v>374</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="9">
         <v>443</v>
       </c>
       <c r="C104" s="6"/>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="9">
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="5"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -5145,21 +5105,21 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -5170,14 +5130,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>576</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -5185,143 +5145,143 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="9">
         <v>31</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="9">
         <v>14</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="9">
         <v>13</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="9">
         <v>12</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="9">
         <v>11</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="9">
         <v>11</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="9">
         <v>10</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="9">
         <v>8</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="9">
         <v>7</v>
       </c>
     </row>
@@ -5331,21 +5291,21 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -5356,14 +5316,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>732</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -5371,147 +5331,147 @@
         <v>657</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="9">
         <v>36</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="9">
         <v>32</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="9">
         <v>11</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="9">
         <v>10</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="9">
         <v>7</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="9">
         <v>6</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
     </row>
@@ -5521,21 +5481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -5545,14 +5505,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>49486</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -5560,143 +5520,143 @@
         <v>46576</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>1900</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>1486</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>1992</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>1411</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <v>1380</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>1384</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <v>1103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>1276</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="9">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>1211</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>971</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>1166</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>1127</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="9">
         <v>876</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>1071</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="9">
         <v>856</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>799</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>750</v>
       </c>
     </row>
@@ -5706,21 +5666,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -5730,14 +5690,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>6615</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -5745,18 +5705,18 @@
         <v>6244</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
         <v>215</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="9">
         <v>244</v>
       </c>
       <c r="G5" s="5"/>
@@ -5765,18 +5725,18 @@
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="9">
         <v>210</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="9">
         <v>165</v>
       </c>
       <c r="G6" s="5"/>
@@ -5785,18 +5745,18 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="9">
         <v>197</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="9">
         <v>161</v>
       </c>
       <c r="G7" s="5"/>
@@ -5805,18 +5765,18 @@
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <v>182</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="9">
         <v>151</v>
       </c>
       <c r="G8" s="5"/>
@@ -5825,18 +5785,18 @@
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>174</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="9">
         <v>142</v>
       </c>
       <c r="G9" s="5"/>
@@ -5845,18 +5805,18 @@
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="9">
         <v>169</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="9">
         <v>112</v>
       </c>
       <c r="G10" s="5"/>
@@ -5865,18 +5825,18 @@
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="9">
         <v>159</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="9">
         <v>105</v>
       </c>
       <c r="G11" s="5"/>
@@ -5885,18 +5845,18 @@
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="9">
         <v>142</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="9">
         <v>102</v>
       </c>
       <c r="G12" s="5"/>
@@ -5905,18 +5865,18 @@
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="9">
         <v>126</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="9">
         <v>97</v>
       </c>
       <c r="G13" s="5"/>
@@ -5925,18 +5885,18 @@
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="9">
         <v>120</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="9">
         <v>95</v>
       </c>
       <c r="G14" s="5"/>
@@ -5951,21 +5911,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -5975,14 +5935,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>4032</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -5990,157 +5950,157 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="9">
         <v>130</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="9">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="9">
         <v>127</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="9">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="9">
         <v>126</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="9">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="9">
         <v>123</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="9">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="9">
         <v>114</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="9">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="9">
         <v>106</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="9">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="9">
         <v>105</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="9">
         <v>99</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="9">
         <v>95</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="9">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="9">
         <v>88</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
     </row>
@@ -6150,26 +6110,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -6179,14 +6139,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4">
         <v>6147</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
@@ -6194,143 +6154,143 @@
         <v>5770</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="9">
         <v>173</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="9">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="9">
         <v>127</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="9">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="9">
         <v>118</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="9">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="9">
         <v>118</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="9">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="9">
         <v>108</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="9">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="9">
         <v>106</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="9">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="9">
         <v>80</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="9">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="9">
         <v>73</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="9">
         <v>69</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="9">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="9">
         <v>67</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="9">
         <v>77</v>
       </c>
     </row>
@@ -6340,21 +6300,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -6365,14 +6325,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>10207</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -6380,143 +6340,143 @@
         <v>9533</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="9">
         <v>271</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="9">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="9">
         <v>260</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="9">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="9">
         <v>212</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="9">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="9">
         <v>211</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="9">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="9">
         <v>186</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="9">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="9">
         <v>138</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="9">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="9">
         <v>137</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="9">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="9">
         <v>133</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="9">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="9">
         <v>124</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="9">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="9">
         <v>118</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="9">
         <v>113</v>
       </c>
     </row>
@@ -6526,21 +6486,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -6551,14 +6511,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>2748</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -6566,143 +6526,143 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="9">
         <v>97</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="9">
         <v>97</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="9">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="9">
         <v>93</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="9">
         <v>86</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="9">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="9">
         <v>84</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="9">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="9">
         <v>77</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="9">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="9">
         <v>72</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="9">
         <v>70</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="9">
         <v>65</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="9">
         <v>57</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="9">
         <v>43</v>
       </c>
     </row>
@@ -6712,21 +6672,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -6737,14 +6697,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>10459</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -6752,153 +6712,153 @@
         <v>9618</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="9">
         <v>387</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="9">
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="9">
         <v>327</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="9">
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="9">
         <v>322</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="9">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="9">
         <v>321</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="9">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="9">
         <v>318</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="9">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="9">
         <v>305</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="9">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="9">
         <v>304</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="9">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="9">
         <v>303</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="9">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="9">
         <v>269</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="9">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="9">
         <v>262</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="9">
         <v>156</v>
       </c>
     </row>
